--- a/BASE 2025.xlsx
+++ b/BASE 2025.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\SCRIPT\CÓDIGO PARA O GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72F3674-3939-4320-9730-1F55C4EBF037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B357F7D-3EFE-443C-8D53-ED1CF5AA2642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$96</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="317">
   <si>
     <t>Nome</t>
   </si>
@@ -55,576 +58,6 @@
     <t>COLABORADOR 1</t>
   </si>
   <si>
-    <t>48194946080</t>
-  </si>
-  <si>
-    <t>34705203652</t>
-  </si>
-  <si>
-    <t>48737508899</t>
-  </si>
-  <si>
-    <t>56345128997</t>
-  </si>
-  <si>
-    <t>75327862923</t>
-  </si>
-  <si>
-    <t>85945316180</t>
-  </si>
-  <si>
-    <t>15793969698</t>
-  </si>
-  <si>
-    <t>74740491414</t>
-  </si>
-  <si>
-    <t>95295861957</t>
-  </si>
-  <si>
-    <t>92464056810</t>
-  </si>
-  <si>
-    <t>90954492477</t>
-  </si>
-  <si>
-    <t>79698532368</t>
-  </si>
-  <si>
-    <t>39390322717</t>
-  </si>
-  <si>
-    <t>72563385852</t>
-  </si>
-  <si>
-    <t>40608279118</t>
-  </si>
-  <si>
-    <t>53094935610</t>
-  </si>
-  <si>
-    <t>70271104816</t>
-  </si>
-  <si>
-    <t>75637965313</t>
-  </si>
-  <si>
-    <t>50639863573</t>
-  </si>
-  <si>
-    <t>46071259333</t>
-  </si>
-  <si>
-    <t>18837283460</t>
-  </si>
-  <si>
-    <t>30021719597</t>
-  </si>
-  <si>
-    <t>44488662153</t>
-  </si>
-  <si>
-    <t>58686944775</t>
-  </si>
-  <si>
-    <t>60867910572</t>
-  </si>
-  <si>
-    <t>31079092204</t>
-  </si>
-  <si>
-    <t>59876805996</t>
-  </si>
-  <si>
-    <t>93377713265</t>
-  </si>
-  <si>
-    <t>82376832211</t>
-  </si>
-  <si>
-    <t>96567577439</t>
-  </si>
-  <si>
-    <t>13917639772</t>
-  </si>
-  <si>
-    <t>23850131931</t>
-  </si>
-  <si>
-    <t>92051821486</t>
-  </si>
-  <si>
-    <t>98089663655</t>
-  </si>
-  <si>
-    <t>94886028716</t>
-  </si>
-  <si>
-    <t>62090885361</t>
-  </si>
-  <si>
-    <t>15662268334</t>
-  </si>
-  <si>
-    <t>20625041130</t>
-  </si>
-  <si>
-    <t>83629334038</t>
-  </si>
-  <si>
-    <t>62656172612</t>
-  </si>
-  <si>
-    <t>28303445953</t>
-  </si>
-  <si>
-    <t>30637944062</t>
-  </si>
-  <si>
-    <t>74481389152</t>
-  </si>
-  <si>
-    <t>59202191966</t>
-  </si>
-  <si>
-    <t>66480466049</t>
-  </si>
-  <si>
-    <t>53489532870</t>
-  </si>
-  <si>
-    <t>99244793526</t>
-  </si>
-  <si>
-    <t>69026407529</t>
-  </si>
-  <si>
-    <t>28312867507</t>
-  </si>
-  <si>
-    <t>99562691250</t>
-  </si>
-  <si>
-    <t>47611070045</t>
-  </si>
-  <si>
-    <t>88535356121</t>
-  </si>
-  <si>
-    <t>73894782634</t>
-  </si>
-  <si>
-    <t>78432147560</t>
-  </si>
-  <si>
-    <t>57915665377</t>
-  </si>
-  <si>
-    <t>17538068538</t>
-  </si>
-  <si>
-    <t>90450590323</t>
-  </si>
-  <si>
-    <t>27888547617</t>
-  </si>
-  <si>
-    <t>13115127005</t>
-  </si>
-  <si>
-    <t>27051691468</t>
-  </si>
-  <si>
-    <t>19800975347</t>
-  </si>
-  <si>
-    <t>92414939285</t>
-  </si>
-  <si>
-    <t>21593247736</t>
-  </si>
-  <si>
-    <t>46528918935</t>
-  </si>
-  <si>
-    <t>14565609734</t>
-  </si>
-  <si>
-    <t>36621442794</t>
-  </si>
-  <si>
-    <t>42836482498</t>
-  </si>
-  <si>
-    <t>73587636777</t>
-  </si>
-  <si>
-    <t>76799265566</t>
-  </si>
-  <si>
-    <t>64390483029</t>
-  </si>
-  <si>
-    <t>76088735789</t>
-  </si>
-  <si>
-    <t>86982817382</t>
-  </si>
-  <si>
-    <t>10595001080</t>
-  </si>
-  <si>
-    <t>17435444125</t>
-  </si>
-  <si>
-    <t>16426574402</t>
-  </si>
-  <si>
-    <t>52305906340</t>
-  </si>
-  <si>
-    <t>60244690732</t>
-  </si>
-  <si>
-    <t>20044408876</t>
-  </si>
-  <si>
-    <t>40062979719</t>
-  </si>
-  <si>
-    <t>54020706841</t>
-  </si>
-  <si>
-    <t>49204928777</t>
-  </si>
-  <si>
-    <t>74100874677</t>
-  </si>
-  <si>
-    <t>56151392715</t>
-  </si>
-  <si>
-    <t>63384049551</t>
-  </si>
-  <si>
-    <t>38874098679</t>
-  </si>
-  <si>
-    <t>39205218007</t>
-  </si>
-  <si>
-    <t>12316308270</t>
-  </si>
-  <si>
-    <t>31893325269</t>
-  </si>
-  <si>
-    <t>26571433635</t>
-  </si>
-  <si>
-    <t>63890886193</t>
-  </si>
-  <si>
-    <t>94332141836</t>
-  </si>
-  <si>
-    <t>73020067145</t>
-  </si>
-  <si>
-    <t>26522054287</t>
-  </si>
-  <si>
-    <t>32920517033</t>
-  </si>
-  <si>
-    <t>15639674704</t>
-  </si>
-  <si>
-    <t>8630400</t>
-  </si>
-  <si>
-    <t>8112856</t>
-  </si>
-  <si>
-    <t>7949084</t>
-  </si>
-  <si>
-    <t>6718754</t>
-  </si>
-  <si>
-    <t>1075350</t>
-  </si>
-  <si>
-    <t>9795072</t>
-  </si>
-  <si>
-    <t>8512382</t>
-  </si>
-  <si>
-    <t>3108070</t>
-  </si>
-  <si>
-    <t>8486475</t>
-  </si>
-  <si>
-    <t>1694017</t>
-  </si>
-  <si>
-    <t>4923680</t>
-  </si>
-  <si>
-    <t>3625745</t>
-  </si>
-  <si>
-    <t>2572030</t>
-  </si>
-  <si>
-    <t>3288791</t>
-  </si>
-  <si>
-    <t>6997153</t>
-  </si>
-  <si>
-    <t>8834861</t>
-  </si>
-  <si>
-    <t>9277015</t>
-  </si>
-  <si>
-    <t>4362611</t>
-  </si>
-  <si>
-    <t>9219322</t>
-  </si>
-  <si>
-    <t>7844675</t>
-  </si>
-  <si>
-    <t>8368861</t>
-  </si>
-  <si>
-    <t>7851986</t>
-  </si>
-  <si>
-    <t>7703695</t>
-  </si>
-  <si>
-    <t>7882925</t>
-  </si>
-  <si>
-    <t>2797847</t>
-  </si>
-  <si>
-    <t>5014020</t>
-  </si>
-  <si>
-    <t>7408476</t>
-  </si>
-  <si>
-    <t>5912139</t>
-  </si>
-  <si>
-    <t>3767955</t>
-  </si>
-  <si>
-    <t>7551448</t>
-  </si>
-  <si>
-    <t>2275423</t>
-  </si>
-  <si>
-    <t>9070778</t>
-  </si>
-  <si>
-    <t>1817343</t>
-  </si>
-  <si>
-    <t>2989924</t>
-  </si>
-  <si>
-    <t>8370681</t>
-  </si>
-  <si>
-    <t>9182123</t>
-  </si>
-  <si>
-    <t>8475824</t>
-  </si>
-  <si>
-    <t>2132799</t>
-  </si>
-  <si>
-    <t>6370958</t>
-  </si>
-  <si>
-    <t>9915723</t>
-  </si>
-  <si>
-    <t>4897956</t>
-  </si>
-  <si>
-    <t>9871872</t>
-  </si>
-  <si>
-    <t>3851831</t>
-  </si>
-  <si>
-    <t>4473154</t>
-  </si>
-  <si>
-    <t>6149684</t>
-  </si>
-  <si>
-    <t>8452136</t>
-  </si>
-  <si>
-    <t>6125429</t>
-  </si>
-  <si>
-    <t>2891464</t>
-  </si>
-  <si>
-    <t>5965737</t>
-  </si>
-  <si>
-    <t>9408293</t>
-  </si>
-  <si>
-    <t>8527045</t>
-  </si>
-  <si>
-    <t>2272163</t>
-  </si>
-  <si>
-    <t>2452400</t>
-  </si>
-  <si>
-    <t>1433458</t>
-  </si>
-  <si>
-    <t>7521932</t>
-  </si>
-  <si>
-    <t>7004315</t>
-  </si>
-  <si>
-    <t>1068463</t>
-  </si>
-  <si>
-    <t>6378726</t>
-  </si>
-  <si>
-    <t>1331647</t>
-  </si>
-  <si>
-    <t>9274948</t>
-  </si>
-  <si>
-    <t>6109446</t>
-  </si>
-  <si>
-    <t>2101870</t>
-  </si>
-  <si>
-    <t>6989274</t>
-  </si>
-  <si>
-    <t>5442769</t>
-  </si>
-  <si>
-    <t>1145907</t>
-  </si>
-  <si>
-    <t>1099926</t>
-  </si>
-  <si>
-    <t>3975009</t>
-  </si>
-  <si>
-    <t>6063025</t>
-  </si>
-  <si>
-    <t>3127744</t>
-  </si>
-  <si>
-    <t>2458170</t>
-  </si>
-  <si>
-    <t>4560557</t>
-  </si>
-  <si>
-    <t>9861702</t>
-  </si>
-  <si>
-    <t>5809807</t>
-  </si>
-  <si>
-    <t>9445973</t>
-  </si>
-  <si>
-    <t>5338783</t>
-  </si>
-  <si>
-    <t>9288027</t>
-  </si>
-  <si>
-    <t>7031695</t>
-  </si>
-  <si>
-    <t>9920047</t>
-  </si>
-  <si>
-    <t>8600307</t>
-  </si>
-  <si>
-    <t>9902419</t>
-  </si>
-  <si>
-    <t>4619952</t>
-  </si>
-  <si>
-    <t>8513002</t>
-  </si>
-  <si>
-    <t>8239645</t>
-  </si>
-  <si>
-    <t>8294960</t>
-  </si>
-  <si>
-    <t>5495018</t>
-  </si>
-  <si>
-    <t>1815188</t>
-  </si>
-  <si>
-    <t>5154395</t>
-  </si>
-  <si>
-    <t>1925142</t>
-  </si>
-  <si>
-    <t>2040956</t>
-  </si>
-  <si>
-    <t>9057438</t>
-  </si>
-  <si>
-    <t>6750439</t>
-  </si>
-  <si>
-    <t>4931129</t>
-  </si>
-  <si>
-    <t>3716874</t>
-  </si>
-  <si>
-    <t>9664966</t>
-  </si>
-  <si>
-    <t>7887262</t>
-  </si>
-  <si>
     <t>ORG1</t>
   </si>
   <si>
@@ -637,291 +70,6 @@
     <t>ORG4</t>
   </si>
   <si>
-    <t>33493360793</t>
-  </si>
-  <si>
-    <t>76060935364</t>
-  </si>
-  <si>
-    <t>45915006606</t>
-  </si>
-  <si>
-    <t>16468397872</t>
-  </si>
-  <si>
-    <t>37668984314</t>
-  </si>
-  <si>
-    <t>44878846442</t>
-  </si>
-  <si>
-    <t>94412971351</t>
-  </si>
-  <si>
-    <t>41631221856</t>
-  </si>
-  <si>
-    <t>88533016316</t>
-  </si>
-  <si>
-    <t>88009293322</t>
-  </si>
-  <si>
-    <t>17744105341</t>
-  </si>
-  <si>
-    <t>65531070330</t>
-  </si>
-  <si>
-    <t>35076369635</t>
-  </si>
-  <si>
-    <t>11200265817</t>
-  </si>
-  <si>
-    <t>11410371595</t>
-  </si>
-  <si>
-    <t>67967981513</t>
-  </si>
-  <si>
-    <t>21552438139</t>
-  </si>
-  <si>
-    <t>45952700882</t>
-  </si>
-  <si>
-    <t>66231013728</t>
-  </si>
-  <si>
-    <t>93368997274</t>
-  </si>
-  <si>
-    <t>62435846689</t>
-  </si>
-  <si>
-    <t>97256715341</t>
-  </si>
-  <si>
-    <t>71407390098</t>
-  </si>
-  <si>
-    <t>65144699849</t>
-  </si>
-  <si>
-    <t>90263704506</t>
-  </si>
-  <si>
-    <t>19662789887</t>
-  </si>
-  <si>
-    <t>75126314648</t>
-  </si>
-  <si>
-    <t>33015001215</t>
-  </si>
-  <si>
-    <t>24215324666</t>
-  </si>
-  <si>
-    <t>95535719627</t>
-  </si>
-  <si>
-    <t>30002217906</t>
-  </si>
-  <si>
-    <t>79531814793</t>
-  </si>
-  <si>
-    <t>92875833716</t>
-  </si>
-  <si>
-    <t>15655895816</t>
-  </si>
-  <si>
-    <t>75550721049</t>
-  </si>
-  <si>
-    <t>40233896251</t>
-  </si>
-  <si>
-    <t>95363064298</t>
-  </si>
-  <si>
-    <t>98142102444</t>
-  </si>
-  <si>
-    <t>39854173425</t>
-  </si>
-  <si>
-    <t>32981783657</t>
-  </si>
-  <si>
-    <t>57173111062</t>
-  </si>
-  <si>
-    <t>56047243374</t>
-  </si>
-  <si>
-    <t>55696242623</t>
-  </si>
-  <si>
-    <t>72942408921</t>
-  </si>
-  <si>
-    <t>62987935864</t>
-  </si>
-  <si>
-    <t>30959396009</t>
-  </si>
-  <si>
-    <t>48185438644</t>
-  </si>
-  <si>
-    <t>15387107611</t>
-  </si>
-  <si>
-    <t>58157695482</t>
-  </si>
-  <si>
-    <t>49251132510</t>
-  </si>
-  <si>
-    <t>39784529796</t>
-  </si>
-  <si>
-    <t>52420074807</t>
-  </si>
-  <si>
-    <t>76665632598</t>
-  </si>
-  <si>
-    <t>49581483902</t>
-  </si>
-  <si>
-    <t>58554051144</t>
-  </si>
-  <si>
-    <t>24687729864</t>
-  </si>
-  <si>
-    <t>72670844811</t>
-  </si>
-  <si>
-    <t>69636573022</t>
-  </si>
-  <si>
-    <t>49894947336</t>
-  </si>
-  <si>
-    <t>13943032844</t>
-  </si>
-  <si>
-    <t>70666883228</t>
-  </si>
-  <si>
-    <t>59033043655</t>
-  </si>
-  <si>
-    <t>31653225531</t>
-  </si>
-  <si>
-    <t>61232376686</t>
-  </si>
-  <si>
-    <t>27386045269</t>
-  </si>
-  <si>
-    <t>36178037060</t>
-  </si>
-  <si>
-    <t>39391041577</t>
-  </si>
-  <si>
-    <t>86182572429</t>
-  </si>
-  <si>
-    <t>26144150583</t>
-  </si>
-  <si>
-    <t>61687297382</t>
-  </si>
-  <si>
-    <t>65551106461</t>
-  </si>
-  <si>
-    <t>68407860350</t>
-  </si>
-  <si>
-    <t>29373309873</t>
-  </si>
-  <si>
-    <t>62763158928</t>
-  </si>
-  <si>
-    <t>62767050944</t>
-  </si>
-  <si>
-    <t>22312614584</t>
-  </si>
-  <si>
-    <t>85532945100</t>
-  </si>
-  <si>
-    <t>83307783066</t>
-  </si>
-  <si>
-    <t>50503765145</t>
-  </si>
-  <si>
-    <t>87383713608</t>
-  </si>
-  <si>
-    <t>36918665861</t>
-  </si>
-  <si>
-    <t>37664093138</t>
-  </si>
-  <si>
-    <t>27598149773</t>
-  </si>
-  <si>
-    <t>24489713610</t>
-  </si>
-  <si>
-    <t>52072148133</t>
-  </si>
-  <si>
-    <t>15864883636</t>
-  </si>
-  <si>
-    <t>77150033528</t>
-  </si>
-  <si>
-    <t>72938967123</t>
-  </si>
-  <si>
-    <t>88184279989</t>
-  </si>
-  <si>
-    <t>36919749219</t>
-  </si>
-  <si>
-    <t>82059380577</t>
-  </si>
-  <si>
-    <t>83989158602</t>
-  </si>
-  <si>
-    <t>77038489877</t>
-  </si>
-  <si>
-    <t>38236923825</t>
-  </si>
-  <si>
-    <t>40407925162</t>
-  </si>
-  <si>
     <t>colaborador1@outlook.com</t>
   </si>
   <si>
@@ -1492,21 +640,6 @@
     <t>9230316094</t>
   </si>
   <si>
-    <t>SISFIN - SP</t>
-  </si>
-  <si>
-    <t>SIAPI</t>
-  </si>
-  <si>
-    <t>SIPEN</t>
-  </si>
-  <si>
-    <t>SIRUR</t>
-  </si>
-  <si>
-    <t>SISFIN - DF</t>
-  </si>
-  <si>
     <t>Analista/Desenvolvedor - Alta Plataforma</t>
   </si>
   <si>
@@ -1826,13 +959,28 @@
   </si>
   <si>
     <t>COLABORADOR 95</t>
+  </si>
+  <si>
+    <t>SIGLA 1</t>
+  </si>
+  <si>
+    <t>SIGLA 2</t>
+  </si>
+  <si>
+    <t>SIGLA 3</t>
+  </si>
+  <si>
+    <t>SIGLA 4</t>
+  </si>
+  <si>
+    <t>SIGLA 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1850,6 +998,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1887,10 +1042,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1903,9 +1059,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2207,22 +1366,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="3" max="3" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="7" max="7" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2258,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>507</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2268,3325 +1427,3352 @@
       <c r="B2" s="3">
         <v>29243</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6">
+        <v>99123456789</v>
+      </c>
+      <c r="D2" s="7">
+        <v>7392846</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>201</v>
       </c>
       <c r="F2" s="3">
         <v>32403</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7">
+        <v>83920471562</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K2" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="J2" t="s">
-        <v>490</v>
-      </c>
-      <c r="K2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>218</v>
       </c>
       <c r="B3" s="3">
         <v>31803</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6">
+        <v>99876543210</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6829175</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" t="s">
-        <v>202</v>
       </c>
       <c r="F3" s="3">
         <v>26409</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7">
+        <v>91283746501</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K3" t="s">
         <v>206</v>
-      </c>
-      <c r="H3" t="s">
-        <v>301</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="J3" t="s">
-        <v>490</v>
-      </c>
-      <c r="K3" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>219</v>
       </c>
       <c r="B4" s="3">
         <v>24259</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>108</v>
+      <c r="C4" s="6">
+        <v>98765432109</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5918374</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3">
         <v>30205</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>207</v>
+      <c r="G4" s="7">
+        <v>74829103647</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>397</v>
+        <v>112</v>
       </c>
       <c r="J4" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K4" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>220</v>
       </c>
       <c r="B5" s="3">
         <v>30628</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>109</v>
+      <c r="C5" s="6">
+        <v>95678901234</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7482916</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3">
         <v>24422</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>208</v>
+      <c r="G5" s="7">
+        <v>62039485713</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>398</v>
+        <v>113</v>
       </c>
       <c r="J5" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K5" t="s">
-        <v>497</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>221</v>
       </c>
       <c r="B6" s="3">
         <v>23033</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>110</v>
+      <c r="C6" s="6">
+        <v>93456789012</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8203947</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3">
         <v>35711</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>209</v>
+      <c r="G6" s="7">
+        <v>98374612058</v>
       </c>
       <c r="H6" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K6" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>222</v>
       </c>
       <c r="B7" s="3">
         <v>24186</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>111</v>
+      <c r="C7" s="6">
+        <v>94567890123</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6739201</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3">
         <v>28436</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>210</v>
+      <c r="G7" s="7">
+        <v>75938462019</v>
       </c>
       <c r="H7" t="s">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>400</v>
+        <v>115</v>
       </c>
       <c r="J7" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K7" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>513</v>
+        <v>223</v>
       </c>
       <c r="B8" s="3">
         <v>33758</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>112</v>
+      <c r="C8" s="6">
+        <v>92345678901</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7593842</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3">
         <v>31307</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>211</v>
+      <c r="G8" s="7">
+        <v>84736291045</v>
       </c>
       <c r="H8" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>401</v>
+        <v>116</v>
       </c>
       <c r="J8" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K8" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>514</v>
+        <v>224</v>
       </c>
       <c r="B9" s="3">
         <v>30987</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>113</v>
+      <c r="C9" s="6">
+        <v>97890123456</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6109283</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3">
         <v>29732</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>212</v>
+      <c r="G9" s="7">
+        <v>69382047156</v>
       </c>
       <c r="H9" t="s">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>402</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K9" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>515</v>
+        <v>225</v>
       </c>
       <c r="B10" s="3">
         <v>33957</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>114</v>
+      <c r="C10" s="6">
+        <v>96543210987</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7948201</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3">
         <v>30167</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>213</v>
+      <c r="G10" s="7">
+        <v>82039475612</v>
       </c>
       <c r="H10" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>403</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K10" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>516</v>
+        <v>226</v>
       </c>
       <c r="B11" s="3">
         <v>31070</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>115</v>
+      <c r="C11" s="6">
+        <v>95678432109</v>
+      </c>
+      <c r="D11" s="7">
+        <v>8391746</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3">
         <v>33655</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>214</v>
+      <c r="G11" s="7">
+        <v>73928461503</v>
       </c>
       <c r="H11" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>404</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K11" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>517</v>
+        <v>227</v>
       </c>
       <c r="B12" s="3">
         <v>23295</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>116</v>
+      <c r="C12" s="6">
+        <v>94321098765</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7029381</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3">
         <v>35241</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>215</v>
+      <c r="G12" s="7">
+        <v>61092837456</v>
       </c>
       <c r="H12" t="s">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>405</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K12" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>518</v>
+        <v>228</v>
       </c>
       <c r="B13" s="3">
         <v>34715</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>117</v>
+      <c r="C13" s="6">
+        <v>98765432098</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6482917</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F13" s="3">
         <v>36830</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>216</v>
+      <c r="G13" s="7">
+        <v>79482013647</v>
       </c>
       <c r="H13" t="s">
-        <v>311</v>
+        <v>26</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>406</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K13" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>519</v>
+        <v>229</v>
       </c>
       <c r="B14" s="3">
         <v>35702</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>118</v>
+      <c r="C14" s="6">
+        <v>93456781234</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5839204</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3">
         <v>35810</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>217</v>
+      <c r="G14" s="7">
+        <v>83917462019</v>
       </c>
       <c r="H14" t="s">
-        <v>312</v>
+        <v>27</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>407</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K14" t="s">
-        <v>500</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>520</v>
+        <v>230</v>
       </c>
       <c r="B15" s="3">
         <v>32789</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>119</v>
+      <c r="C15" s="6">
+        <v>94567892345</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7193846</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F15" s="3">
         <v>25844</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>218</v>
+      <c r="G15" s="7">
+        <v>70293847156</v>
       </c>
       <c r="H15" t="s">
-        <v>313</v>
+        <v>28</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>408</v>
+        <v>123</v>
       </c>
       <c r="J15" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K15" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>231</v>
       </c>
       <c r="B16" s="3">
         <v>34147</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>120</v>
+      <c r="C16" s="6">
+        <v>92345679876</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8039172</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3">
         <v>34976</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>219</v>
+      <c r="G16" s="7">
+        <v>64829103647</v>
       </c>
       <c r="H16" t="s">
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>409</v>
+        <v>124</v>
       </c>
       <c r="J16" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K16" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>522</v>
+        <v>232</v>
       </c>
       <c r="B17" s="3">
         <v>28458</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>121</v>
+      <c r="C17" s="6">
+        <v>97890124567</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6928471</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3">
         <v>26710</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>220</v>
+      <c r="G17" s="7">
+        <v>58392047156</v>
       </c>
       <c r="H17" t="s">
-        <v>315</v>
+        <v>30</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K17" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>523</v>
+        <v>233</v>
       </c>
       <c r="B18" s="3">
         <v>33213</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>122</v>
+      <c r="C18" s="6">
+        <v>96543219876</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7659203</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3">
         <v>27951</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>221</v>
+      <c r="G18" s="7">
+        <v>71938462019</v>
       </c>
       <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" t="s">
         <v>316</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="J18" t="s">
-        <v>490</v>
-      </c>
       <c r="K18" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>524</v>
+        <v>234</v>
       </c>
       <c r="B19" s="3">
         <v>26337</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>123</v>
+      <c r="C19" s="6">
+        <v>95678431234</v>
+      </c>
+      <c r="D19" s="7">
+        <v>8491736</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F19" s="3">
         <v>36639</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>222</v>
+      <c r="G19" s="7">
+        <v>80391745612</v>
       </c>
       <c r="H19" t="s">
-        <v>317</v>
+        <v>32</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>412</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K19" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>525</v>
+        <v>235</v>
       </c>
       <c r="B20" s="3">
         <v>25118</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>124</v>
+      <c r="C20" s="6">
+        <v>94321097654</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7109284</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F20" s="3">
         <v>35663</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>223</v>
+      <c r="G20" s="7">
+        <v>69284713647</v>
       </c>
       <c r="H20" t="s">
-        <v>318</v>
+        <v>33</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>413</v>
+        <v>128</v>
       </c>
       <c r="J20" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K20" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>526</v>
+        <v>236</v>
       </c>
       <c r="B21" s="3">
         <v>25241</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>125</v>
+      <c r="C21" s="6">
+        <v>98765431097</v>
+      </c>
+      <c r="D21" s="7">
+        <v>6849201</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F21" s="3">
         <v>33753</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>224</v>
+      <c r="G21" s="7">
+        <v>76592047156</v>
       </c>
       <c r="H21" t="s">
-        <v>319</v>
+        <v>34</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>414</v>
+        <v>129</v>
       </c>
       <c r="J21" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K21" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>527</v>
+        <v>237</v>
       </c>
       <c r="B22" s="3">
         <v>24089</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>126</v>
+      <c r="C22" s="6">
+        <v>93456782109</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7983745</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F22" s="3">
         <v>23587</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>225</v>
+      <c r="G22" s="7">
+        <v>84917362019</v>
       </c>
       <c r="H22" t="s">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>415</v>
+        <v>130</v>
       </c>
       <c r="J22" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K22" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>528</v>
+        <v>238</v>
       </c>
       <c r="B23" s="3">
         <v>34007</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>127</v>
+      <c r="C23" s="6">
+        <v>94567893456</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7291836</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F23" s="3">
         <v>36151</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>226</v>
+      <c r="G23" s="7">
+        <v>71092837456</v>
       </c>
       <c r="H23" t="s">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>416</v>
+        <v>131</v>
       </c>
       <c r="J23" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K23" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>529</v>
+        <v>239</v>
       </c>
       <c r="B24" s="3">
         <v>29285</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>128</v>
+      <c r="C24" s="6">
+        <v>92345678098</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7902847</v>
       </c>
       <c r="E24" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3">
         <v>31783</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>227</v>
+      <c r="G24" s="7">
+        <v>68492013647</v>
       </c>
       <c r="H24" t="s">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>417</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
-        <v>490</v>
+        <v>316</v>
       </c>
       <c r="K24" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="B25" s="3">
         <v>36404</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>129</v>
+      <c r="C25" s="6">
+        <v>97890125678</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7658392</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F25" s="3">
         <v>35848</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>228</v>
+      <c r="G25" s="7">
+        <v>79837462019</v>
       </c>
       <c r="H25" t="s">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>418</v>
+        <v>133</v>
       </c>
       <c r="J25" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K25" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>531</v>
+        <v>241</v>
       </c>
       <c r="B26" s="3">
         <v>23927</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>130</v>
+      <c r="C26" s="6">
+        <v>96543218765</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7819204</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F26" s="3">
         <v>29500</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>229</v>
+      <c r="G26" s="7">
+        <v>72918347156</v>
       </c>
       <c r="H26" t="s">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>419</v>
+        <v>134</v>
       </c>
       <c r="J26" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K26" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>532</v>
+        <v>242</v>
       </c>
       <c r="B27" s="3">
         <v>28440</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>131</v>
+      <c r="C27" s="6">
+        <v>95678430123</v>
+      </c>
+      <c r="D27" s="7">
+        <v>6038471</v>
       </c>
       <c r="E27" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F27" s="3">
         <v>26924</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>230</v>
+      <c r="G27" s="7">
+        <v>79028413647</v>
       </c>
       <c r="H27" t="s">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>420</v>
+        <v>135</v>
       </c>
       <c r="J27" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K27" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>533</v>
+        <v>243</v>
       </c>
       <c r="B28" s="3">
         <v>31790</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>132</v>
+      <c r="C28" s="6">
+        <v>94321096543</v>
+      </c>
+      <c r="D28" s="7">
+        <v>7948203</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F28" s="3">
         <v>32232</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>231</v>
+      <c r="G28" s="7">
+        <v>76583962019</v>
       </c>
       <c r="H28" t="s">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>421</v>
+        <v>136</v>
       </c>
       <c r="J28" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K28" t="s">
-        <v>501</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>534</v>
+        <v>244</v>
       </c>
       <c r="B29" s="3">
         <v>29286</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>133</v>
+      <c r="C29" s="6">
+        <v>98765430986</v>
+      </c>
+      <c r="D29" s="7">
+        <v>6891735</v>
       </c>
       <c r="E29" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F29" s="3">
         <v>31377</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>232</v>
+      <c r="G29" s="7">
+        <v>78192047156</v>
       </c>
       <c r="H29" t="s">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="J29" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K29" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>535</v>
+        <v>245</v>
       </c>
       <c r="B30" s="3">
         <v>23971</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>134</v>
+      <c r="C30" s="6">
+        <v>93456783210</v>
+      </c>
+      <c r="D30" s="7">
+        <v>6729384</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F30" s="3">
         <v>30266</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>233</v>
+      <c r="G30" s="7">
+        <v>60384713647</v>
       </c>
       <c r="H30" t="s">
-        <v>328</v>
+        <v>43</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>423</v>
+        <v>138</v>
       </c>
       <c r="J30" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K30" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>536</v>
+        <v>246</v>
       </c>
       <c r="B31" s="3">
         <v>24586</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>135</v>
+      <c r="C31" s="6">
+        <v>94567894567</v>
+      </c>
+      <c r="D31" s="7">
+        <v>7582917</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F31" s="3">
         <v>23801</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>234</v>
+      <c r="G31" s="7">
+        <v>79482047156</v>
       </c>
       <c r="H31" t="s">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>424</v>
+        <v>139</v>
       </c>
       <c r="J31" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K31" t="s">
-        <v>501</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>537</v>
+        <v>247</v>
       </c>
       <c r="B32" s="3">
         <v>25364</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>136</v>
+      <c r="C32" s="6">
+        <v>92345677098</v>
+      </c>
+      <c r="D32" s="7">
+        <v>6203948</v>
       </c>
       <c r="E32" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F32" s="3">
         <v>34233</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>235</v>
+      <c r="G32" s="7">
+        <v>68917362019</v>
       </c>
       <c r="H32" t="s">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>425</v>
+        <v>140</v>
       </c>
       <c r="J32" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>538</v>
+        <v>248</v>
       </c>
       <c r="B33" s="3">
         <v>25298</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>137</v>
+      <c r="C33" s="6">
+        <v>97890126789</v>
+      </c>
+      <c r="D33" s="7">
+        <v>7992846</v>
       </c>
       <c r="E33" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F33" s="3">
         <v>34046</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>236</v>
+      <c r="G33" s="7">
+        <v>67293847156</v>
       </c>
       <c r="H33" t="s">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>426</v>
+        <v>141</v>
       </c>
       <c r="J33" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K33" t="s">
-        <v>501</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>539</v>
+        <v>249</v>
       </c>
       <c r="B34" s="3">
         <v>35983</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>138</v>
+      <c r="C34" s="6">
+        <v>96543217654</v>
+      </c>
+      <c r="D34" s="7">
+        <v>6309281</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F34" s="3">
         <v>36746</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>237</v>
+      <c r="G34" s="7">
+        <v>75829103647</v>
       </c>
       <c r="H34" t="s">
-        <v>332</v>
+        <v>47</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>427</v>
+        <v>142</v>
       </c>
       <c r="J34" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="B35" s="3">
         <v>29005</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>139</v>
+      <c r="C35" s="6">
+        <v>95678429012</v>
+      </c>
+      <c r="D35" s="7">
+        <v>7593841</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F35" s="3">
         <v>22109</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>238</v>
+      <c r="G35" s="7">
+        <v>62039447156</v>
       </c>
       <c r="H35" t="s">
-        <v>333</v>
+        <v>48</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>428</v>
+        <v>143</v>
       </c>
       <c r="J35" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>541</v>
+        <v>251</v>
       </c>
       <c r="B36" s="3">
         <v>22198</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>140</v>
+      <c r="C36" s="6">
+        <v>94321095432</v>
+      </c>
+      <c r="D36" s="7">
+        <v>8129374</v>
       </c>
       <c r="E36" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F36" s="3">
         <v>32420</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>239</v>
+      <c r="G36" s="7">
+        <v>79928462019</v>
       </c>
       <c r="H36" t="s">
-        <v>334</v>
+        <v>49</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>429</v>
+        <v>144</v>
       </c>
       <c r="J36" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K36" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>542</v>
+        <v>252</v>
       </c>
       <c r="B37" s="3">
         <v>22364</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>141</v>
+      <c r="C37" s="6">
+        <v>98765429875</v>
+      </c>
+      <c r="D37" s="7">
+        <v>7981023</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F37" s="3">
         <v>25122</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>240</v>
+      <c r="G37" s="7">
+        <v>63092837456</v>
       </c>
       <c r="H37" t="s">
-        <v>335</v>
+        <v>50</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>430</v>
+        <v>145</v>
       </c>
       <c r="J37" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K37" t="s">
-        <v>501</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>543</v>
+        <v>253</v>
       </c>
       <c r="B38" s="3">
         <v>29681</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>142</v>
+      <c r="C38" s="6">
+        <v>93456784321</v>
+      </c>
+      <c r="D38" s="7">
+        <v>7839204</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F38" s="3">
         <v>28060</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>241</v>
+      <c r="G38" s="7">
+        <v>75938413647</v>
       </c>
       <c r="H38" t="s">
-        <v>336</v>
+        <v>51</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>431</v>
+        <v>146</v>
       </c>
       <c r="J38" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K38" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>544</v>
+        <v>254</v>
       </c>
       <c r="B39" s="3">
         <v>27652</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>143</v>
+      <c r="C39" s="6">
+        <v>94567895678</v>
+      </c>
+      <c r="D39" s="7">
+        <v>6293847</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F39" s="3">
         <v>25065</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>242</v>
+      <c r="G39" s="7">
+        <v>81293762019</v>
       </c>
       <c r="H39" t="s">
-        <v>337</v>
+        <v>52</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>432</v>
+        <v>147</v>
       </c>
       <c r="J39" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K39" t="s">
-        <v>497</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>545</v>
+        <v>255</v>
       </c>
       <c r="B40" s="3">
         <v>32526</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>144</v>
+      <c r="C40" s="6">
+        <v>92345676098</v>
+      </c>
+      <c r="D40" s="7">
+        <v>6958201</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F40" s="3">
         <v>32347</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>243</v>
+      <c r="G40" s="7">
+        <v>79810247156</v>
       </c>
       <c r="H40" t="s">
-        <v>338</v>
+        <v>53</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>433</v>
+        <v>148</v>
       </c>
       <c r="J40" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K40" t="s">
-        <v>501</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>546</v>
+        <v>256</v>
       </c>
       <c r="B41" s="3">
         <v>34636</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>145</v>
+      <c r="C41" s="6">
+        <v>97890127890</v>
+      </c>
+      <c r="D41" s="7">
+        <v>7409283</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F41" s="3">
         <v>25082</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>244</v>
+      <c r="G41" s="7">
+        <v>78392013647</v>
       </c>
       <c r="H41" t="s">
-        <v>339</v>
+        <v>54</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>434</v>
+        <v>149</v>
       </c>
       <c r="J41" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s">
-        <v>501</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>547</v>
+        <v>257</v>
       </c>
       <c r="B42" s="3">
         <v>27916</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>146</v>
+      <c r="C42" s="6">
+        <v>96543216543</v>
+      </c>
+      <c r="D42" s="7">
+        <v>6891734</v>
       </c>
       <c r="E42" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F42" s="3">
         <v>26634</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>245</v>
+      <c r="G42" s="7">
+        <v>62938462019</v>
       </c>
       <c r="H42" t="s">
-        <v>340</v>
+        <v>55</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>435</v>
+        <v>150</v>
       </c>
       <c r="J42" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K42" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>548</v>
+        <v>258</v>
       </c>
       <c r="B43" s="3">
         <v>35354</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>147</v>
+      <c r="C43" s="6">
+        <v>95678428098</v>
+      </c>
+      <c r="D43" s="7">
+        <v>7938472</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F43" s="3">
         <v>23857</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>246</v>
+      <c r="G43" s="7">
+        <v>69582047156</v>
       </c>
       <c r="H43" t="s">
-        <v>341</v>
+        <v>56</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>436</v>
+        <v>151</v>
       </c>
       <c r="J43" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K43" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>549</v>
+        <v>259</v>
       </c>
       <c r="B44" s="3">
         <v>35578</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>148</v>
+      <c r="C44" s="6">
+        <v>94321094321</v>
+      </c>
+      <c r="D44" s="7">
+        <v>6109284</v>
       </c>
       <c r="E44" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F44" s="3">
         <v>23652</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>247</v>
+      <c r="G44" s="7">
+        <v>74092813647</v>
       </c>
       <c r="H44" t="s">
-        <v>342</v>
+        <v>57</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>437</v>
+        <v>152</v>
       </c>
       <c r="J44" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s">
-        <v>497</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>550</v>
+        <v>260</v>
       </c>
       <c r="B45" s="3">
         <v>25898</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>149</v>
+      <c r="C45" s="6">
+        <v>98765428764</v>
+      </c>
+      <c r="D45" s="7">
+        <v>7593843</v>
       </c>
       <c r="E45" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F45" s="3">
         <v>26913</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>248</v>
+      <c r="G45" s="7">
+        <v>68917347156</v>
       </c>
       <c r="H45" t="s">
-        <v>343</v>
+        <v>58</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>438</v>
+        <v>153</v>
       </c>
       <c r="J45" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K45" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>551</v>
+        <v>261</v>
       </c>
       <c r="B46" s="3">
         <v>29778</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>150</v>
+      <c r="C46" s="6">
+        <v>93456785432</v>
+      </c>
+      <c r="D46" s="7">
+        <v>6829174</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F46" s="3">
         <v>27559</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>249</v>
+      <c r="G46" s="7">
+        <v>79384762019</v>
       </c>
       <c r="H46" t="s">
-        <v>344</v>
+        <v>59</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>439</v>
+        <v>154</v>
       </c>
       <c r="J46" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K46" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>552</v>
+        <v>262</v>
       </c>
       <c r="B47" s="3">
         <v>28963</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>151</v>
+      <c r="C47" s="6">
+        <v>94567896789</v>
+      </c>
+      <c r="D47" s="7">
+        <v>7482915</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F47" s="3">
         <v>28792</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>250</v>
+      <c r="G47" s="7">
+        <v>61092847156</v>
       </c>
       <c r="H47" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>440</v>
+        <v>155</v>
       </c>
       <c r="J47" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K47" t="s">
-        <v>500</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>553</v>
+        <v>263</v>
       </c>
       <c r="B48" s="3">
         <v>26140</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>152</v>
+      <c r="C48" s="6">
+        <v>92345675098</v>
+      </c>
+      <c r="D48" s="7">
+        <v>8203946</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F48" s="3">
         <v>34388</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>251</v>
+      <c r="G48" s="7">
+        <v>75938462018</v>
       </c>
       <c r="H48" t="s">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>441</v>
+        <v>156</v>
       </c>
       <c r="J48" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K48" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>554</v>
+        <v>264</v>
       </c>
       <c r="B49" s="3">
         <v>27248</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>153</v>
+      <c r="C49" s="6">
+        <v>97890128901</v>
+      </c>
+      <c r="D49" s="7">
+        <v>6739202</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F49" s="3">
         <v>27659</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>252</v>
+      <c r="G49" s="7">
+        <v>68291713647</v>
       </c>
       <c r="H49" t="s">
-        <v>347</v>
+        <v>62</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>442</v>
+        <v>157</v>
       </c>
       <c r="J49" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K49" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>555</v>
+        <v>265</v>
       </c>
       <c r="B50" s="3">
         <v>24536</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>154</v>
+      <c r="C50" s="6">
+        <v>96543215432</v>
+      </c>
+      <c r="D50" s="7">
+        <v>7593844</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F50" s="3">
         <v>23177</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>253</v>
+      <c r="G50" s="7">
+        <v>74829162019</v>
       </c>
       <c r="H50" t="s">
-        <v>348</v>
+        <v>63</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>443</v>
+        <v>158</v>
       </c>
       <c r="J50" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K50" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>556</v>
+        <v>266</v>
       </c>
       <c r="B51" s="3">
         <v>22461</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>155</v>
+      <c r="C51" s="6">
+        <v>95678427087</v>
+      </c>
+      <c r="D51" s="7">
+        <v>6109285</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F51" s="3">
         <v>34841</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>254</v>
+      <c r="G51" s="7">
+        <v>82039447156</v>
       </c>
       <c r="H51" t="s">
-        <v>349</v>
+        <v>64</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>444</v>
+        <v>159</v>
       </c>
       <c r="J51" t="s">
-        <v>491</v>
+        <v>312</v>
       </c>
       <c r="K51" t="s">
-        <v>502</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>557</v>
+        <v>267</v>
       </c>
       <c r="B52" s="3">
         <v>29274</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>156</v>
+      <c r="C52" s="6">
+        <v>94321093210</v>
+      </c>
+      <c r="D52" s="7">
+        <v>7948202</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F52" s="3">
         <v>29496</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>255</v>
+      <c r="G52" s="7">
+        <v>67392013647</v>
       </c>
       <c r="H52" t="s">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>445</v>
+        <v>160</v>
       </c>
       <c r="J52" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="K52" t="s">
-        <v>503</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>558</v>
+        <v>268</v>
       </c>
       <c r="B53" s="3">
         <v>32563</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>157</v>
+      <c r="C53" s="6">
+        <v>98765427653</v>
+      </c>
+      <c r="D53" s="7">
+        <v>8391745</v>
       </c>
       <c r="E53" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F53" s="3">
         <v>24655</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>256</v>
+      <c r="G53" s="7">
+        <v>75938447156</v>
       </c>
       <c r="H53" t="s">
-        <v>351</v>
+        <v>66</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>446</v>
+        <v>161</v>
       </c>
       <c r="J53" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="K53" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>559</v>
+        <v>269</v>
       </c>
       <c r="B54" s="3">
         <v>27005</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>158</v>
+      <c r="C54" s="6">
+        <v>93456786543</v>
+      </c>
+      <c r="D54" s="7">
+        <v>7029382</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F54" s="3">
         <v>35203</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>257</v>
+      <c r="G54" s="7">
+        <v>61092862019</v>
       </c>
       <c r="H54" t="s">
-        <v>352</v>
+        <v>67</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>447</v>
+        <v>162</v>
       </c>
       <c r="J54" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="K54" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>560</v>
+        <v>270</v>
       </c>
       <c r="B55" s="3">
         <v>22049</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>159</v>
+      <c r="C55" s="6">
+        <v>94567897890</v>
+      </c>
+      <c r="D55" s="7">
+        <v>6482916</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F55" s="3">
         <v>33790</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>258</v>
+      <c r="G55" s="7">
+        <v>79482047155</v>
       </c>
       <c r="H55" t="s">
-        <v>353</v>
+        <v>68</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>448</v>
+        <v>163</v>
       </c>
       <c r="J55" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="K55" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>561</v>
+        <v>271</v>
       </c>
       <c r="B56" s="3">
         <v>34177</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>160</v>
+      <c r="C56" s="6">
+        <v>92345674098</v>
+      </c>
+      <c r="D56" s="7">
+        <v>5839203</v>
       </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F56" s="3">
         <v>33979</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>259</v>
+      <c r="G56" s="7">
+        <v>83917413647</v>
       </c>
       <c r="H56" t="s">
-        <v>354</v>
+        <v>69</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>449</v>
+        <v>164</v>
       </c>
       <c r="J56" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="K56" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>562</v>
+        <v>272</v>
       </c>
       <c r="B57" s="3">
         <v>30280</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>161</v>
+      <c r="C57" s="6">
+        <v>97890129012</v>
+      </c>
+      <c r="D57" s="7">
+        <v>7193845</v>
       </c>
       <c r="E57" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F57" s="3">
         <v>36824</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>260</v>
+      <c r="G57" s="7">
+        <v>70293862019</v>
       </c>
       <c r="H57" t="s">
-        <v>355</v>
+        <v>70</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>450</v>
+        <v>165</v>
       </c>
       <c r="J57" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="K57" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>563</v>
+        <v>273</v>
       </c>
       <c r="B58" s="3">
         <v>35085</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>162</v>
+      <c r="C58" s="6">
+        <v>96543214321</v>
+      </c>
+      <c r="D58" s="7">
+        <v>8039171</v>
       </c>
       <c r="E58" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F58" s="3">
         <v>32011</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>261</v>
+      <c r="G58" s="7">
+        <v>64829147156</v>
       </c>
       <c r="H58" t="s">
-        <v>356</v>
+        <v>71</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>451</v>
+        <v>166</v>
       </c>
       <c r="J58" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="K58" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>564</v>
+        <v>274</v>
       </c>
       <c r="B59" s="3">
         <v>26475</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>163</v>
+      <c r="C59" s="6">
+        <v>95678426076</v>
+      </c>
+      <c r="D59" s="7">
+        <v>6928472</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F59" s="3">
         <v>26321</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>262</v>
+      <c r="G59" s="7">
+        <v>58392013647</v>
       </c>
       <c r="H59" t="s">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>452</v>
+        <v>167</v>
       </c>
       <c r="J59" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="K59" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>565</v>
+        <v>275</v>
       </c>
       <c r="B60" s="3">
         <v>25020</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>164</v>
+      <c r="C60" s="6">
+        <v>94321092109</v>
+      </c>
+      <c r="D60" s="7">
+        <v>7659204</v>
       </c>
       <c r="E60" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F60" s="3">
         <v>24467</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>263</v>
+      <c r="G60" s="7">
+        <v>71938447156</v>
       </c>
       <c r="H60" t="s">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>453</v>
+        <v>168</v>
       </c>
       <c r="J60" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="K60" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>566</v>
+        <v>276</v>
       </c>
       <c r="B61" s="3">
         <v>23869</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>165</v>
+      <c r="C61" s="6">
+        <v>98765426542</v>
+      </c>
+      <c r="D61" s="7">
+        <v>8491735</v>
       </c>
       <c r="E61" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F61" s="3">
         <v>27773</v>
       </c>
-      <c r="G61" s="5" t="s">
-        <v>264</v>
+      <c r="G61" s="7">
+        <v>80391762019</v>
       </c>
       <c r="H61" t="s">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>454</v>
+        <v>169</v>
       </c>
       <c r="J61" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="K61" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>567</v>
+        <v>277</v>
       </c>
       <c r="B62" s="3">
         <v>34848</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>166</v>
+      <c r="C62" s="6">
+        <v>93456787654</v>
+      </c>
+      <c r="D62" s="7">
+        <v>7109285</v>
       </c>
       <c r="E62" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F62" s="3">
         <v>30947</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>265</v>
+      <c r="G62" s="7">
+        <v>69284747156</v>
       </c>
       <c r="H62" t="s">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>455</v>
+        <v>170</v>
       </c>
       <c r="J62" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="K62" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>568</v>
+        <v>278</v>
       </c>
       <c r="B63" s="3">
         <v>22775</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>167</v>
+      <c r="C63" s="6">
+        <v>94567898901</v>
+      </c>
+      <c r="D63" s="7">
+        <v>6849202</v>
       </c>
       <c r="E63" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F63" s="3">
         <v>27538</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>266</v>
+      <c r="G63" s="7">
+        <v>76592013647</v>
       </c>
       <c r="H63" t="s">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>456</v>
+        <v>171</v>
       </c>
       <c r="J63" t="s">
-        <v>492</v>
+        <v>313</v>
       </c>
       <c r="K63" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>569</v>
+        <v>279</v>
       </c>
       <c r="B64" s="3">
         <v>29211</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>168</v>
+      <c r="C64" s="6">
+        <v>92345673098</v>
+      </c>
+      <c r="D64" s="7">
+        <v>7983746</v>
       </c>
       <c r="E64" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F64" s="3">
         <v>31781</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>267</v>
+      <c r="G64" s="7">
+        <v>84917347156</v>
       </c>
       <c r="H64" t="s">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>457</v>
+        <v>172</v>
       </c>
       <c r="J64" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K64" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="B65" s="3">
         <v>32599</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>169</v>
+      <c r="C65" s="6">
+        <v>97890130123</v>
+      </c>
+      <c r="D65" s="7">
+        <v>7291835</v>
       </c>
       <c r="E65" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F65" s="3">
         <v>25841</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>268</v>
+      <c r="G65" s="7">
+        <v>71092862019</v>
       </c>
       <c r="H65" t="s">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>458</v>
+        <v>173</v>
       </c>
       <c r="J65" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K65" t="s">
-        <v>497</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>571</v>
+        <v>281</v>
       </c>
       <c r="B66" s="3">
         <v>30955</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>170</v>
+      <c r="C66" s="6">
+        <v>96543213210</v>
+      </c>
+      <c r="D66" s="7">
+        <v>7902846</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F66" s="3">
         <v>27098</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>269</v>
+      <c r="G66" s="7">
+        <v>68492047156</v>
       </c>
       <c r="H66" t="s">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>459</v>
+        <v>174</v>
       </c>
       <c r="J66" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K66" t="s">
-        <v>497</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>572</v>
+        <v>282</v>
       </c>
       <c r="B67" s="3">
         <v>24553</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>171</v>
+      <c r="C67" s="6">
+        <v>95678425065</v>
+      </c>
+      <c r="D67" s="7">
+        <v>7658391</v>
       </c>
       <c r="E67" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F67" s="3">
         <v>23008</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>270</v>
+      <c r="G67" s="7">
+        <v>79837413647</v>
       </c>
       <c r="H67" t="s">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>460</v>
+        <v>175</v>
       </c>
       <c r="J67" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K67" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>573</v>
+        <v>283</v>
       </c>
       <c r="B68" s="3">
         <v>32974</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>172</v>
+      <c r="C68" s="6">
+        <v>94321091098</v>
+      </c>
+      <c r="D68" s="7">
+        <v>7819203</v>
       </c>
       <c r="E68" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F68" s="3">
         <v>35208</v>
       </c>
-      <c r="G68" s="5" t="s">
-        <v>271</v>
+      <c r="G68" s="7">
+        <v>72918362019</v>
       </c>
       <c r="H68" t="s">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>461</v>
+        <v>176</v>
       </c>
       <c r="J68" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K68" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>574</v>
+        <v>284</v>
       </c>
       <c r="B69" s="3">
         <v>27045</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>173</v>
+      <c r="C69" s="6">
+        <v>98765425431</v>
+      </c>
+      <c r="D69" s="7">
+        <v>6038472</v>
       </c>
       <c r="E69" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F69" s="3">
         <v>35199</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>272</v>
+      <c r="G69" s="7">
+        <v>79028447156</v>
       </c>
       <c r="H69" t="s">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>462</v>
+        <v>177</v>
       </c>
       <c r="J69" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K69" t="s">
-        <v>502</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>575</v>
+        <v>285</v>
       </c>
       <c r="B70" s="3">
         <v>26084</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>174</v>
+      <c r="C70" s="6">
+        <v>93456788765</v>
+      </c>
+      <c r="D70" s="7">
+        <v>7948204</v>
       </c>
       <c r="E70" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F70" s="3">
         <v>33802</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>273</v>
+      <c r="G70" s="7">
+        <v>76583913647</v>
       </c>
       <c r="H70" t="s">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>463</v>
+        <v>178</v>
       </c>
       <c r="J70" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K70" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>576</v>
+        <v>286</v>
       </c>
       <c r="B71" s="3">
         <v>32360</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>175</v>
+      <c r="C71" s="6">
+        <v>94567899012</v>
+      </c>
+      <c r="D71" s="7">
+        <v>6891736</v>
       </c>
       <c r="E71" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F71" s="3">
         <v>23500</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>274</v>
+      <c r="G71" s="7">
+        <v>78192062019</v>
       </c>
       <c r="H71" t="s">
-        <v>369</v>
+        <v>84</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>464</v>
+        <v>179</v>
       </c>
       <c r="J71" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K71" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>577</v>
+        <v>287</v>
       </c>
       <c r="B72" s="3">
         <v>29793</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>176</v>
+      <c r="C72" s="6">
+        <v>92345672098</v>
+      </c>
+      <c r="D72" s="7">
+        <v>6729385</v>
       </c>
       <c r="E72" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F72" s="3">
         <v>26526</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>275</v>
+      <c r="G72" s="7">
+        <v>60384747156</v>
       </c>
       <c r="H72" t="s">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>465</v>
+        <v>180</v>
       </c>
       <c r="J72" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K72" t="s">
-        <v>500</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>578</v>
+        <v>288</v>
       </c>
       <c r="B73" s="3">
         <v>32337</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>177</v>
+      <c r="C73" s="6">
+        <v>97890131234</v>
+      </c>
+      <c r="D73" s="7">
+        <v>7582916</v>
       </c>
       <c r="E73" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F73" s="3">
         <v>34256</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>276</v>
+      <c r="G73" s="7">
+        <v>79482013646</v>
       </c>
       <c r="H73" t="s">
-        <v>371</v>
+        <v>86</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>466</v>
+        <v>181</v>
       </c>
       <c r="J73" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K73" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>579</v>
+        <v>289</v>
       </c>
       <c r="B74" s="3">
         <v>35079</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>178</v>
+      <c r="C74" s="6">
+        <v>96543212109</v>
+      </c>
+      <c r="D74" s="7">
+        <v>6203947</v>
       </c>
       <c r="E74" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F74" s="3">
         <v>29843</v>
       </c>
-      <c r="G74" s="5" t="s">
-        <v>277</v>
+      <c r="G74" s="7">
+        <v>68917347155</v>
       </c>
       <c r="H74" t="s">
-        <v>372</v>
+        <v>87</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>467</v>
+        <v>182</v>
       </c>
       <c r="J74" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K74" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="B75" s="3">
         <v>36316</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>179</v>
+      <c r="C75" s="6">
+        <v>95678424054</v>
+      </c>
+      <c r="D75" s="7">
+        <v>7992845</v>
       </c>
       <c r="E75" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F75" s="3">
         <v>31307</v>
       </c>
-      <c r="G75" s="5" t="s">
-        <v>278</v>
+      <c r="G75" s="7">
+        <v>67293862019</v>
       </c>
       <c r="H75" t="s">
-        <v>373</v>
+        <v>88</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>468</v>
+        <v>183</v>
       </c>
       <c r="J75" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K75" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>581</v>
+        <v>291</v>
       </c>
       <c r="B76" s="3">
         <v>26903</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>180</v>
+      <c r="C76" s="6">
+        <v>94321090987</v>
+      </c>
+      <c r="D76" s="7">
+        <v>6309282</v>
       </c>
       <c r="E76" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F76" s="3">
         <v>32251</v>
       </c>
-      <c r="G76" s="5" t="s">
-        <v>279</v>
+      <c r="G76" s="7">
+        <v>75829147156</v>
       </c>
       <c r="H76" t="s">
-        <v>374</v>
+        <v>89</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>469</v>
+        <v>184</v>
       </c>
       <c r="J76" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K76" t="s">
-        <v>502</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>582</v>
+        <v>292</v>
       </c>
       <c r="B77" s="3">
         <v>31107</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>181</v>
+      <c r="C77" s="6">
+        <v>98765424320</v>
+      </c>
+      <c r="D77" s="7">
+        <v>7593845</v>
       </c>
       <c r="E77" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F77" s="3">
         <v>30166</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>280</v>
+      <c r="G77" s="7">
+        <v>62039413647</v>
       </c>
       <c r="H77" t="s">
-        <v>375</v>
+        <v>90</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>470</v>
+        <v>185</v>
       </c>
       <c r="J77" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K77" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>583</v>
+        <v>293</v>
       </c>
       <c r="B78" s="3">
         <v>28616</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>182</v>
+      <c r="C78" s="6">
+        <v>93456789876</v>
+      </c>
+      <c r="D78" s="7">
+        <v>8129373</v>
       </c>
       <c r="E78" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F78" s="3">
         <v>34662</v>
       </c>
-      <c r="G78" s="5" t="s">
-        <v>281</v>
+      <c r="G78" s="7">
+        <v>79928447156</v>
       </c>
       <c r="H78" t="s">
-        <v>376</v>
+        <v>91</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>471</v>
+        <v>186</v>
       </c>
       <c r="J78" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K78" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>584</v>
+        <v>294</v>
       </c>
       <c r="B79" s="3">
         <v>25119</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>183</v>
+      <c r="C79" s="6">
+        <v>94567890123</v>
+      </c>
+      <c r="D79" s="7">
+        <v>7981024</v>
       </c>
       <c r="E79" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F79" s="3">
         <v>27176</v>
       </c>
-      <c r="G79" s="5" t="s">
-        <v>282</v>
+      <c r="G79" s="7">
+        <v>63092862019</v>
       </c>
       <c r="H79" t="s">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>472</v>
+        <v>187</v>
       </c>
       <c r="J79" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K79" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>585</v>
+        <v>295</v>
       </c>
       <c r="B80" s="3">
         <v>24727</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>184</v>
+      <c r="C80" s="6">
+        <v>92345671098</v>
+      </c>
+      <c r="D80" s="7">
+        <v>7839203</v>
       </c>
       <c r="E80" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F80" s="3">
         <v>26879</v>
       </c>
-      <c r="G80" s="5" t="s">
-        <v>283</v>
+      <c r="G80" s="7">
+        <v>75938447155</v>
       </c>
       <c r="H80" t="s">
-        <v>378</v>
+        <v>93</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>473</v>
+        <v>188</v>
       </c>
       <c r="J80" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K80" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>586</v>
+        <v>296</v>
       </c>
       <c r="B81" s="3">
         <v>35119</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>185</v>
+      <c r="C81" s="6">
+        <v>97890132345</v>
+      </c>
+      <c r="D81" s="7">
+        <v>6293846</v>
       </c>
       <c r="E81" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F81" s="3">
         <v>23741</v>
       </c>
-      <c r="G81" s="5" t="s">
-        <v>284</v>
+      <c r="G81" s="7">
+        <v>81293713647</v>
       </c>
       <c r="H81" t="s">
-        <v>379</v>
+        <v>94</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>474</v>
+        <v>189</v>
       </c>
       <c r="J81" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="K81" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>587</v>
+        <v>297</v>
       </c>
       <c r="B82" s="3">
         <v>32926</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>186</v>
+      <c r="C82" s="6">
+        <v>96543211098</v>
+      </c>
+      <c r="D82" s="7">
+        <v>6958202</v>
       </c>
       <c r="E82" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F82" s="3">
         <v>27078</v>
       </c>
-      <c r="G82" s="5" t="s">
-        <v>285</v>
+      <c r="G82" s="7">
+        <v>79810262019</v>
       </c>
       <c r="H82" t="s">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>475</v>
+        <v>190</v>
       </c>
       <c r="J82" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K82" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>588</v>
+        <v>298</v>
       </c>
       <c r="B83" s="3">
         <v>29118</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>187</v>
+      <c r="C83" s="6">
+        <v>95678423043</v>
+      </c>
+      <c r="D83" s="7">
+        <v>7409284</v>
       </c>
       <c r="E83" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F83" s="3">
         <v>30201</v>
       </c>
-      <c r="G83" s="5" t="s">
-        <v>286</v>
+      <c r="G83" s="7">
+        <v>78392047156</v>
       </c>
       <c r="H83" t="s">
-        <v>381</v>
+        <v>96</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>476</v>
+        <v>191</v>
       </c>
       <c r="J83" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K83" t="s">
-        <v>500</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>589</v>
+        <v>299</v>
       </c>
       <c r="B84" s="3">
         <v>33185</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>188</v>
+      <c r="C84" s="6">
+        <v>94321089876</v>
+      </c>
+      <c r="D84" s="7">
+        <v>6891733</v>
       </c>
       <c r="E84" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F84" s="3">
         <v>34953</v>
       </c>
-      <c r="G84" s="5" t="s">
-        <v>287</v>
+      <c r="G84" s="7">
+        <v>62938413647</v>
       </c>
       <c r="H84" t="s">
-        <v>382</v>
+        <v>97</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>477</v>
+        <v>192</v>
       </c>
       <c r="J84" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K84" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="B85" s="3">
         <v>35013</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>189</v>
+      <c r="C85" s="6">
+        <v>98765423219</v>
+      </c>
+      <c r="D85" s="7">
+        <v>7938471</v>
       </c>
       <c r="E85" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F85" s="3">
         <v>29398</v>
       </c>
-      <c r="G85" s="5" t="s">
-        <v>288</v>
+      <c r="G85" s="7">
+        <v>69582062019</v>
       </c>
       <c r="H85" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>478</v>
+        <v>193</v>
       </c>
       <c r="J85" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K85" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>591</v>
+        <v>301</v>
       </c>
       <c r="B86" s="3">
         <v>30943</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>190</v>
+      <c r="C86" s="6">
+        <v>93456790987</v>
+      </c>
+      <c r="D86" s="7">
+        <v>6109286</v>
       </c>
       <c r="E86" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F86" s="3">
         <v>27837</v>
       </c>
-      <c r="G86" s="5" t="s">
-        <v>289</v>
+      <c r="G86" s="7">
+        <v>74092847156</v>
       </c>
       <c r="H86" t="s">
-        <v>384</v>
+        <v>99</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>479</v>
+        <v>194</v>
       </c>
       <c r="J86" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K86" t="s">
-        <v>498</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>592</v>
+        <v>302</v>
       </c>
       <c r="B87" s="3">
         <v>24471</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>191</v>
+      <c r="C87" s="6">
+        <v>94567891234</v>
+      </c>
+      <c r="D87" s="7">
+        <v>7593846</v>
       </c>
       <c r="E87" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F87" s="3">
         <v>22758</v>
       </c>
-      <c r="G87" s="5" t="s">
-        <v>290</v>
+      <c r="G87" s="7">
+        <v>68917313647</v>
       </c>
       <c r="H87" t="s">
-        <v>385</v>
+        <v>100</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>480</v>
+        <v>195</v>
       </c>
       <c r="J87" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K87" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>593</v>
+        <v>303</v>
       </c>
       <c r="B88" s="3">
         <v>28690</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>192</v>
+      <c r="C88" s="6">
+        <v>92345670098</v>
+      </c>
+      <c r="D88" s="7">
+        <v>6829173</v>
       </c>
       <c r="E88" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F88" s="3">
         <v>34736</v>
       </c>
-      <c r="G88" s="5" t="s">
-        <v>291</v>
+      <c r="G88" s="7">
+        <v>79384747156</v>
       </c>
       <c r="H88" t="s">
-        <v>386</v>
+        <v>101</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>481</v>
+        <v>196</v>
       </c>
       <c r="J88" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K88" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>594</v>
+        <v>304</v>
       </c>
       <c r="B89" s="3">
         <v>32204</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>193</v>
+      <c r="C89" s="6">
+        <v>97890133456</v>
+      </c>
+      <c r="D89" s="7">
+        <v>7482914</v>
       </c>
       <c r="E89" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F89" s="3">
         <v>29022</v>
       </c>
-      <c r="G89" s="5" t="s">
-        <v>292</v>
+      <c r="G89" s="7">
+        <v>61092813647</v>
       </c>
       <c r="H89" t="s">
-        <v>387</v>
+        <v>102</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>482</v>
+        <v>197</v>
       </c>
       <c r="J89" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K89" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>595</v>
+        <v>305</v>
       </c>
       <c r="B90" s="3">
         <v>27182</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>194</v>
+      <c r="C90" s="6">
+        <v>96543210987</v>
+      </c>
+      <c r="D90" s="7">
+        <v>8203945</v>
       </c>
       <c r="E90" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F90" s="3">
         <v>30880</v>
       </c>
-      <c r="G90" s="5" t="s">
-        <v>293</v>
+      <c r="G90" s="7">
+        <v>75938462017</v>
       </c>
       <c r="H90" t="s">
-        <v>388</v>
+        <v>103</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>483</v>
+        <v>198</v>
       </c>
       <c r="J90" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K90" t="s">
-        <v>505</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>596</v>
+        <v>306</v>
       </c>
       <c r="B91" s="3">
         <v>24267</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>195</v>
+      <c r="C91" s="6">
+        <v>95678422032</v>
+      </c>
+      <c r="D91" s="7">
+        <v>6739203</v>
       </c>
       <c r="E91" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="F91" s="3">
         <v>23110</v>
       </c>
-      <c r="G91" s="5" t="s">
-        <v>294</v>
+      <c r="G91" s="7">
+        <v>68291747156</v>
       </c>
       <c r="H91" t="s">
-        <v>389</v>
+        <v>104</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>484</v>
+        <v>199</v>
       </c>
       <c r="J91" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K91" t="s">
-        <v>506</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>597</v>
+        <v>307</v>
       </c>
       <c r="B92" s="3">
         <v>31804</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>196</v>
+      <c r="C92" s="6">
+        <v>94321088765</v>
+      </c>
+      <c r="D92" s="7">
+        <v>7593847</v>
       </c>
       <c r="E92" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F92" s="3">
         <v>28120</v>
       </c>
-      <c r="G92" s="5" t="s">
-        <v>295</v>
+      <c r="G92" s="7">
+        <v>74829113647</v>
       </c>
       <c r="H92" t="s">
-        <v>390</v>
+        <v>105</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>485</v>
+        <v>200</v>
       </c>
       <c r="J92" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K92" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>598</v>
+        <v>308</v>
       </c>
       <c r="B93" s="3">
         <v>29632</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>197</v>
+      <c r="C93" s="6">
+        <v>98765422108</v>
+      </c>
+      <c r="D93" s="7">
+        <v>6109287</v>
       </c>
       <c r="E93" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="F93" s="3">
         <v>25713</v>
       </c>
-      <c r="G93" s="5" t="s">
-        <v>296</v>
+      <c r="G93" s="7">
+        <v>82039462019</v>
       </c>
       <c r="H93" t="s">
-        <v>391</v>
+        <v>106</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>486</v>
+        <v>201</v>
       </c>
       <c r="J93" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K93" t="s">
-        <v>499</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>599</v>
+        <v>309</v>
       </c>
       <c r="B94" s="3">
         <v>30757</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>198</v>
+      <c r="C94" s="6">
+        <v>93456792098</v>
+      </c>
+      <c r="D94" s="7">
+        <v>7948205</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F94" s="3">
         <v>35618</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>297</v>
+      <c r="G94" s="7">
+        <v>67392047156</v>
       </c>
       <c r="H94" t="s">
-        <v>392</v>
+        <v>107</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>487</v>
+        <v>202</v>
       </c>
       <c r="J94" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K94" t="s">
-        <v>504</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>600</v>
+        <v>310</v>
       </c>
       <c r="B95" s="3">
         <v>26845</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>199</v>
+      <c r="C95" s="6">
+        <v>94567892345</v>
+      </c>
+      <c r="D95" s="7">
+        <v>8391744</v>
       </c>
       <c r="E95" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F95" s="3">
         <v>34909</v>
       </c>
-      <c r="G95" s="5" t="s">
-        <v>298</v>
+      <c r="G95" s="7">
+        <v>75938462016</v>
       </c>
       <c r="H95" t="s">
-        <v>393</v>
+        <v>108</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>488</v>
+        <v>203</v>
       </c>
       <c r="J95" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K95" t="s">
-        <v>495</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>601</v>
+        <v>311</v>
       </c>
       <c r="B96" s="3">
         <v>30378</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>200</v>
+      <c r="C96" s="6">
+        <v>92345669098</v>
+      </c>
+      <c r="D96" s="7">
+        <v>7029383</v>
       </c>
       <c r="E96" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="F96" s="3">
         <v>27357</v>
       </c>
-      <c r="G96" s="5" t="s">
-        <v>299</v>
+      <c r="G96" s="7">
+        <v>61092847155</v>
       </c>
       <c r="H96" t="s">
-        <v>394</v>
+        <v>109</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>489</v>
+        <v>204</v>
       </c>
       <c r="J96" t="s">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="K96" t="s">
-        <v>495</v>
-      </c>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" s="6"/>
+      <c r="D97" s="7"/>
+      <c r="G97" s="7">
+        <v>79482062019</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" s="6"/>
+      <c r="D98" s="7"/>
+      <c r="G98" s="7">
+        <v>83917447156</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" s="6"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" s="6"/>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="6"/>
+      <c r="D101" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="J1:J96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
